--- a/biology/Botanique/Chloris_(plante)/Chloris_(plante).xlsx
+++ b/biology/Botanique/Chloris_(plante)/Chloris_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloris est un genre de la famille des Poaceae (Graminées) répandues dans le monde entier principalement dans les régions tropicales et subtropicales, surtout dans l'hémisphère sud.
 Ce sont des plantes de forme variable mais généralement de moins de 50 centimètres de haut et avec une inflorescence formant plusieurs espèces de petites plumes.
@@ -513,7 +525,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chloris andropogonoides
 Chloris barbata
